--- a/Labyrinth2/Excel/labyrinth1001.xlsx
+++ b/Labyrinth2/Excel/labyrinth1001.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B460032-552B-A645-B70D-7C5ED4DCF5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="500" windowWidth="28960" windowHeight="18700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,8 +105,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,22 +121,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -159,69 +482,342 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="1"/>
+          <bgColor theme="9" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="7" tint="0.599993896298105"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
+          <bgColor theme="1" tint="0.349986266670736"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.59999389629810485"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -235,28 +831,35 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="0"/>
+          <bgColor theme="6" tint="0.599993896298105"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="1" tint="0.34998626667073579"/>
+          <bgColor theme="9" tint="0.599993896298105"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.599993896298105"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.399975585192419"/>
         </patternFill>
       </fill>
     </dxf>
@@ -265,9 +868,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -554,24 +1154,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="11" width="8.6640625" customWidth="1"/>
+    <col min="2" max="11" width="8.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25" customHeight="1">
+    <row r="1" ht="25" customHeight="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,7 +1215,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="25" customHeight="1">
+    <row r="2" ht="25" customHeight="1" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -659,7 +1259,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="25" customHeight="1">
+    <row r="3" ht="25" customHeight="1" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -703,7 +1303,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="25" customHeight="1">
+    <row r="4" ht="25" customHeight="1" spans="1:14">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -715,11 +1315,11 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" ht="25" customHeight="1">
+    <row r="5" ht="25" customHeight="1" spans="1:14">
       <c r="A5" s="1">
         <v>9999</v>
       </c>
@@ -763,406 +1363,522 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="45" customHeight="1">
+    <row r="6" ht="45" customHeight="1" spans="1:14">
       <c r="A6" s="1">
         <v>0</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1">
         <v>15</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="H6" s="1">
+        <v>8</v>
+      </c>
+      <c r="I6" s="1">
+        <v>8</v>
+      </c>
+      <c r="J6" s="1">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1">
+        <v>8</v>
+      </c>
+      <c r="L6" s="1">
+        <v>8</v>
+      </c>
+      <c r="M6" s="1">
+        <v>8</v>
+      </c>
+      <c r="N6" s="1">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" ht="45" customHeight="1">
+    <row r="7" ht="45" customHeight="1" spans="1:14">
       <c r="A7" s="1">
         <v>1</v>
       </c>
-      <c r="B7" s="2">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
         <v>15</v>
       </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2">
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1">
         <v>15</v>
       </c>
-      <c r="K7" s="2">
-        <v>8</v>
-      </c>
-      <c r="L7" s="2">
-        <v>8</v>
-      </c>
-      <c r="M7" s="2">
-        <v>8</v>
-      </c>
-      <c r="N7" s="2">
+      <c r="K7" s="1">
+        <v>8</v>
+      </c>
+      <c r="L7" s="1">
+        <v>8</v>
+      </c>
+      <c r="M7" s="1">
+        <v>8</v>
+      </c>
+      <c r="N7" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="45" customHeight="1">
+    <row r="8" ht="45" customHeight="1" spans="1:14">
       <c r="A8" s="1">
         <v>2</v>
       </c>
-      <c r="B8" s="2">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
         <v>15</v>
       </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>8</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2">
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>8</v>
+      </c>
+      <c r="I8" s="1">
+        <v>8</v>
+      </c>
+      <c r="J8" s="1">
         <v>15</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
+      <c r="K8" s="1">
+        <v>2</v>
+      </c>
+      <c r="L8" s="1">
+        <v>8</v>
+      </c>
+      <c r="M8" s="1">
+        <v>2</v>
+      </c>
+      <c r="N8" s="1">
+        <v>8</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" ht="45" customHeight="1">
+    <row r="9" ht="45" customHeight="1" spans="1:14">
       <c r="A9" s="1">
         <v>3</v>
       </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>8</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2">
-        <v>1</v>
-      </c>
-      <c r="J9" s="2">
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
         <v>15</v>
       </c>
-      <c r="K9" s="2">
-        <v>1</v>
-      </c>
-      <c r="L9" s="2">
-        <v>1</v>
-      </c>
-      <c r="M9" s="2">
-        <v>1</v>
-      </c>
-      <c r="N9" s="2">
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="45" customHeight="1">
+    <row r="10" ht="45" customHeight="1" spans="1:14">
       <c r="A10" s="1">
         <v>4</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2">
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
         <v>15</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2">
-        <v>8</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2">
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>8</v>
+      </c>
+      <c r="I10" s="1">
+        <v>8</v>
+      </c>
+      <c r="J10" s="1">
         <v>15</v>
       </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
+      <c r="K10" s="1">
+        <v>2</v>
+      </c>
+      <c r="L10" s="1">
+        <v>2</v>
+      </c>
+      <c r="M10" s="1">
+        <v>2</v>
+      </c>
+      <c r="N10" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="11" spans="1:14" ht="45" customHeight="1">
+    <row r="11" ht="45" customHeight="1" spans="1:14">
       <c r="A11" s="1">
         <v>5</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2">
-        <v>2</v>
-      </c>
-      <c r="E11" s="2">
-        <v>8</v>
-      </c>
-      <c r="F11" s="2">
-        <v>8</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1">
+        <v>8</v>
+      </c>
+      <c r="G11" s="1">
         <v>15</v>
       </c>
-      <c r="H11" s="2">
-        <v>8</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2">
+      <c r="H11" s="1">
+        <v>8</v>
+      </c>
+      <c r="I11" s="1">
+        <v>8</v>
+      </c>
+      <c r="J11" s="1">
         <v>15</v>
       </c>
-      <c r="K11" s="2">
-        <v>1</v>
-      </c>
-      <c r="L11" s="2">
-        <v>1</v>
-      </c>
-      <c r="M11" s="2">
-        <v>1</v>
-      </c>
-      <c r="N11" s="2">
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="45" customHeight="1">
+    <row r="12" ht="45" customHeight="1" spans="1:14">
       <c r="A12" s="1">
         <v>6</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
         <v>15</v>
       </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2">
-        <v>8</v>
-      </c>
-      <c r="I12" s="2">
-        <v>8</v>
-      </c>
-      <c r="J12" s="2">
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>8</v>
+      </c>
+      <c r="I12" s="1">
+        <v>8</v>
+      </c>
+      <c r="J12" s="1">
         <v>15</v>
       </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="K12" s="1">
+        <v>8</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:14" ht="45" customHeight="1">
+    <row r="13" ht="45" customHeight="1" spans="1:14">
       <c r="A13" s="1">
         <v>7</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2</v>
-      </c>
-      <c r="F13" s="2">
-        <v>2</v>
-      </c>
-      <c r="G13" s="2">
-        <v>2</v>
-      </c>
-      <c r="H13" s="2">
-        <v>2</v>
-      </c>
-      <c r="I13" s="2">
-        <v>2</v>
-      </c>
-      <c r="J13" s="2">
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2</v>
+      </c>
+      <c r="J13" s="1">
         <v>15</v>
       </c>
-      <c r="K13" s="2">
-        <v>2</v>
-      </c>
-      <c r="L13" s="2">
-        <v>2</v>
-      </c>
-      <c r="M13" s="2">
-        <v>2</v>
-      </c>
-      <c r="N13" s="2">
+      <c r="K13" s="1">
+        <v>2</v>
+      </c>
+      <c r="L13" s="1">
+        <v>2</v>
+      </c>
+      <c r="M13" s="1">
+        <v>2</v>
+      </c>
+      <c r="N13" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="45" customHeight="1">
+    <row r="14" ht="45" customHeight="1" spans="1:14">
       <c r="A14" s="1">
         <v>8</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2">
-        <v>1</v>
-      </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>15</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2</v>
+      </c>
+      <c r="L14" s="1">
+        <v>4</v>
+      </c>
+      <c r="M14" s="1">
+        <v>4</v>
+      </c>
+      <c r="N14" s="1">
+        <v>4</v>
+      </c>
     </row>
-    <row r="15" spans="1:14" ht="45" customHeight="1">
+    <row r="15" ht="45" customHeight="1" spans="1:14">
       <c r="A15" s="1">
         <v>9</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1">
+        <v>8</v>
+      </c>
+      <c r="F15" s="1">
+        <v>8</v>
+      </c>
+      <c r="G15" s="1">
+        <v>8</v>
+      </c>
+      <c r="H15" s="1">
+        <v>8</v>
+      </c>
+      <c r="I15" s="1">
+        <v>8</v>
+      </c>
+      <c r="J15" s="1">
+        <v>8</v>
+      </c>
+      <c r="K15" s="1">
+        <v>8</v>
+      </c>
+      <c r="L15" s="1">
+        <v>8</v>
+      </c>
+      <c r="M15" s="1">
+        <v>2</v>
+      </c>
+      <c r="N15" s="1">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B6:K15">
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+  <conditionalFormatting sqref="B6:N6 B7:K15">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B6:N15">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B6:Y36">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:N15">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Labyrinth2/Excel/labyrinth1001.xlsx
+++ b/Labyrinth2/Excel/labyrinth1001.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="15660" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>ID</t>
   </si>
@@ -60,9 +60,15 @@
     <t>c12</t>
   </si>
   <si>
+    <t>rule</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
+    <t>str</t>
+  </si>
+  <si>
     <t>列0</t>
   </si>
   <si>
@@ -100,6 +106,26 @@
   </si>
   <si>
     <t>列12</t>
+  </si>
+  <si>
+    <t>规则</t>
+  </si>
+  <si>
+    <t>此行c0列值：地图总行数，c1列值：地图总列数</t>
+  </si>
+  <si>
+    <t>1、2、4、8(还可以扩展 2 的次幂) 表示 N 中不同的路径，理论上4中已经够用了</t>
+  </si>
+  <si>
+    <t>每个格子的值表示该格子属于哪一种路径</t>
+  </si>
+  <si>
+    <t>相邻格子是否互通(中间没有墙)如何判定？假定相邻格子值分别为 A,B
+位运算 （A &amp; B)!= 0  则两个格子互通(中间没有墙)，否则两格子中间有墙</t>
+  </si>
+  <si>
+    <t>为了便于识别，将每种值得格子设置为单独的颜色标识，设置方式：先选择区域，然后菜单栏
+条件格式-&gt;突出显示单元格规则-&gt;等于-&gt;设置为-&gt;自定义-&gt;图案 然后选择一个颜色</t>
   </si>
 </sst>
 </file>
@@ -107,9 +133,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -121,6 +147,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -129,7 +177,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,17 +229,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -161,22 +241,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,45 +285,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,12 +300,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -292,157 +462,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,16 +510,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,44 +539,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,6 +571,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -588,10 +614,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -600,145 +626,157 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -792,11 +830,11 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.799981688894314"/>
+          <bgColor theme="6" tint="0.399975585192419"/>
         </patternFill>
       </fill>
     </dxf>
@@ -804,6 +842,13 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="7" tint="0.599993896298105"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
@@ -859,7 +904,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.399975585192419"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1160,18 +1212,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="11" width="8.66666666666667" customWidth="1"/>
+    <col min="15" max="15" width="82.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1" spans="1:14">
+    <row r="1" ht="25" customHeight="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1214,96 +1267,105 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" ht="25" customHeight="1" spans="1:14">
+    <row r="2" ht="25" customHeight="1" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" ht="25" customHeight="1" spans="1:14">
+    <row r="3" ht="25" customHeight="1" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="4" ht="25" customHeight="1" spans="1:14">
+    <row r="4" ht="25" customHeight="1" spans="1:21">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1315,11 +1377,14 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="3"/>
+      <c r="S4" s="5"/>
+      <c r="U4" s="5"/>
     </row>
-    <row r="5" ht="25" customHeight="1" spans="1:14">
+    <row r="5" ht="25" customHeight="1" spans="1:21">
       <c r="A5" s="1">
         <v>9999</v>
       </c>
@@ -1362,485 +1427,550 @@
       <c r="N5" s="1">
         <v>0</v>
       </c>
+      <c r="O5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" s="5"/>
+      <c r="U5" s="5"/>
     </row>
-    <row r="6" ht="45" customHeight="1" spans="1:14">
+    <row r="6" ht="45" customHeight="1" spans="1:21">
       <c r="A6" s="1">
         <v>0</v>
       </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>4</v>
+      </c>
+      <c r="J6" s="2">
+        <v>4</v>
+      </c>
+      <c r="K6" s="2">
+        <v>4</v>
+      </c>
+      <c r="L6" s="2">
+        <v>4</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" s="5"/>
+      <c r="U6" s="5"/>
+    </row>
+    <row r="7" ht="45" customHeight="1" spans="1:21">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
+        <v>2</v>
+      </c>
+      <c r="L7" s="2">
+        <v>4</v>
+      </c>
+      <c r="M7" s="2">
+        <v>4</v>
+      </c>
+      <c r="N7" s="2">
+        <v>15</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S7" s="5"/>
+      <c r="U7" s="5"/>
+    </row>
+    <row r="8" ht="45" customHeight="1" spans="1:21">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2">
         <v>8</v>
       </c>
-      <c r="F6" s="1">
-        <v>8</v>
-      </c>
-      <c r="G6" s="1">
-        <v>15</v>
-      </c>
-      <c r="H6" s="1">
-        <v>8</v>
-      </c>
-      <c r="I6" s="1">
-        <v>8</v>
-      </c>
-      <c r="J6" s="1">
-        <v>8</v>
-      </c>
-      <c r="K6" s="1">
-        <v>8</v>
-      </c>
-      <c r="L6" s="1">
-        <v>8</v>
-      </c>
-      <c r="M6" s="1">
-        <v>8</v>
-      </c>
-      <c r="N6" s="1">
-        <v>8</v>
-      </c>
+      <c r="D8" s="2">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>4</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>15</v>
+      </c>
+      <c r="J8" s="2">
+        <v>2</v>
+      </c>
+      <c r="K8" s="2">
+        <v>2</v>
+      </c>
+      <c r="L8" s="2">
+        <v>4</v>
+      </c>
+      <c r="M8" s="2">
+        <v>2</v>
+      </c>
+      <c r="N8" s="2">
+        <v>2</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S8" s="5"/>
+      <c r="U8" s="5"/>
     </row>
-    <row r="7" ht="45" customHeight="1" spans="1:14">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>15</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>2</v>
-      </c>
-      <c r="I7" s="1">
-        <v>2</v>
-      </c>
-      <c r="J7" s="1">
-        <v>15</v>
-      </c>
-      <c r="K7" s="1">
-        <v>8</v>
-      </c>
-      <c r="L7" s="1">
-        <v>8</v>
-      </c>
-      <c r="M7" s="1">
-        <v>8</v>
-      </c>
-      <c r="N7" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" ht="45" customHeight="1" spans="1:14">
-      <c r="A8" s="1">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>8</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
-        <v>8</v>
-      </c>
-      <c r="I8" s="1">
-        <v>8</v>
-      </c>
-      <c r="J8" s="1">
-        <v>15</v>
-      </c>
-      <c r="K8" s="1">
-        <v>2</v>
-      </c>
-      <c r="L8" s="1">
-        <v>8</v>
-      </c>
-      <c r="M8" s="1">
-        <v>2</v>
-      </c>
-      <c r="N8" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" ht="45" customHeight="1" spans="1:14">
+    <row r="9" ht="45" customHeight="1" spans="1:21">
       <c r="A9" s="1">
         <v>3</v>
       </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>8</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1">
-        <v>15</v>
-      </c>
-      <c r="K9" s="1">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1">
-        <v>1</v>
-      </c>
-      <c r="M9" s="1">
-        <v>1</v>
-      </c>
-      <c r="N9" s="1">
-        <v>1</v>
-      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2">
+        <v>4</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>4</v>
+      </c>
+      <c r="J9" s="2">
+        <v>4</v>
+      </c>
+      <c r="K9" s="2">
+        <v>4</v>
+      </c>
+      <c r="L9" s="2">
+        <v>4</v>
+      </c>
+      <c r="M9" s="2">
+        <v>4</v>
+      </c>
+      <c r="N9" s="2">
+        <v>2</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S9" s="5"/>
+      <c r="U9" s="5"/>
     </row>
-    <row r="10" ht="45" customHeight="1" spans="1:14">
+    <row r="10" ht="45" customHeight="1" spans="1:21">
       <c r="A10" s="1">
         <v>4</v>
       </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>15</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>8</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1">
-        <v>8</v>
-      </c>
-      <c r="I10" s="1">
-        <v>8</v>
-      </c>
-      <c r="J10" s="1">
-        <v>15</v>
-      </c>
-      <c r="K10" s="1">
-        <v>2</v>
-      </c>
-      <c r="L10" s="1">
-        <v>2</v>
-      </c>
-      <c r="M10" s="1">
-        <v>2</v>
-      </c>
-      <c r="N10" s="1">
-        <v>2</v>
-      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>15</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>4</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2</v>
+      </c>
+      <c r="K10" s="2">
+        <v>2</v>
+      </c>
+      <c r="L10" s="2">
+        <v>2</v>
+      </c>
+      <c r="M10" s="2">
+        <v>2</v>
+      </c>
+      <c r="N10" s="2">
+        <v>2</v>
+      </c>
+      <c r="O10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="U10" s="5"/>
     </row>
-    <row r="11" ht="45" customHeight="1" spans="1:14">
+    <row r="11" ht="45" customHeight="1" spans="1:21">
       <c r="A11" s="1">
         <v>5</v>
       </c>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="B11" s="2">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2">
         <v>8</v>
       </c>
-      <c r="F11" s="1">
+      <c r="E11" s="2">
         <v>8</v>
       </c>
-      <c r="G11" s="1">
-        <v>15</v>
-      </c>
-      <c r="H11" s="1">
+      <c r="F11" s="2">
         <v>8</v>
       </c>
-      <c r="I11" s="1">
+      <c r="G11" s="2">
+        <v>4</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2</v>
+      </c>
+      <c r="K11" s="2">
+        <v>2</v>
+      </c>
+      <c r="L11" s="2">
         <v>8</v>
       </c>
-      <c r="J11" s="1">
-        <v>15</v>
-      </c>
-      <c r="K11" s="1">
-        <v>1</v>
-      </c>
-      <c r="L11" s="1">
-        <v>1</v>
-      </c>
-      <c r="M11" s="1">
-        <v>1</v>
-      </c>
-      <c r="N11" s="1">
-        <v>1</v>
-      </c>
+      <c r="M11" s="2">
+        <v>15</v>
+      </c>
+      <c r="N11" s="2">
+        <v>8</v>
+      </c>
+      <c r="O11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="U11" s="5"/>
     </row>
-    <row r="12" ht="45" customHeight="1" spans="1:14">
+    <row r="12" ht="45" customHeight="1" spans="1:21">
       <c r="A12" s="1">
         <v>6</v>
       </c>
-      <c r="B12" s="1">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
-        <v>15</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1">
-        <v>8</v>
-      </c>
-      <c r="I12" s="1">
-        <v>8</v>
-      </c>
-      <c r="J12" s="1">
-        <v>15</v>
-      </c>
-      <c r="K12" s="1">
-        <v>8</v>
-      </c>
-      <c r="L12" s="1">
-        <v>1</v>
-      </c>
-      <c r="M12" s="1">
-        <v>1</v>
-      </c>
-      <c r="N12" s="1">
-        <v>1</v>
-      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2">
+        <v>4</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>2</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1</v>
+      </c>
+      <c r="O12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="U12" s="5"/>
     </row>
-    <row r="13" ht="45" customHeight="1" spans="1:14">
+    <row r="13" ht="45" customHeight="1" spans="1:21">
       <c r="A13" s="1">
         <v>7</v>
       </c>
-      <c r="B13" s="1">
-        <v>2</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2</v>
-      </c>
-      <c r="G13" s="1">
-        <v>2</v>
-      </c>
-      <c r="H13" s="1">
-        <v>2</v>
-      </c>
-      <c r="I13" s="1">
-        <v>2</v>
-      </c>
-      <c r="J13" s="1">
-        <v>15</v>
-      </c>
-      <c r="K13" s="1">
-        <v>2</v>
-      </c>
-      <c r="L13" s="1">
-        <v>2</v>
-      </c>
-      <c r="M13" s="1">
-        <v>2</v>
-      </c>
-      <c r="N13" s="1">
-        <v>2</v>
-      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>4</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2">
+        <v>2</v>
+      </c>
+      <c r="L13" s="2">
+        <v>2</v>
+      </c>
+      <c r="M13" s="2">
+        <v>2</v>
+      </c>
+      <c r="N13" s="2">
+        <v>2</v>
+      </c>
+      <c r="O13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="U13" s="5"/>
     </row>
-    <row r="14" ht="45" customHeight="1" spans="1:14">
+    <row r="14" ht="45" customHeight="1" spans="1:21">
       <c r="A14" s="1">
         <v>8</v>
       </c>
-      <c r="B14" s="1">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1">
-        <v>15</v>
-      </c>
-      <c r="K14" s="1">
-        <v>2</v>
-      </c>
-      <c r="L14" s="1">
-        <v>4</v>
-      </c>
-      <c r="M14" s="1">
-        <v>4</v>
-      </c>
-      <c r="N14" s="1">
-        <v>4</v>
-      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>15</v>
+      </c>
+      <c r="G14" s="2">
+        <v>4</v>
+      </c>
+      <c r="H14" s="2">
+        <v>4</v>
+      </c>
+      <c r="I14" s="2">
+        <v>4</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2">
+        <v>15</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1</v>
+      </c>
+      <c r="O14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="U14" s="5"/>
     </row>
-    <row r="15" ht="45" customHeight="1" spans="1:14">
+    <row r="15" ht="45" customHeight="1" spans="1:21">
       <c r="A15" s="1">
         <v>9</v>
       </c>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1">
-        <v>8</v>
-      </c>
-      <c r="E15" s="1">
-        <v>8</v>
-      </c>
-      <c r="F15" s="1">
-        <v>8</v>
-      </c>
-      <c r="G15" s="1">
-        <v>8</v>
-      </c>
-      <c r="H15" s="1">
-        <v>8</v>
-      </c>
-      <c r="I15" s="1">
-        <v>8</v>
-      </c>
-      <c r="J15" s="1">
-        <v>8</v>
-      </c>
-      <c r="K15" s="1">
-        <v>8</v>
-      </c>
-      <c r="L15" s="1">
-        <v>8</v>
-      </c>
-      <c r="M15" s="1">
-        <v>2</v>
-      </c>
-      <c r="N15" s="1">
-        <v>2</v>
-      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>15</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2">
+        <v>2</v>
+      </c>
+      <c r="L15" s="2">
+        <v>2</v>
+      </c>
+      <c r="M15" s="2">
+        <v>2</v>
+      </c>
+      <c r="N15" s="2">
+        <v>2</v>
+      </c>
+      <c r="O15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="U15" s="5"/>
+    </row>
+    <row r="16" spans="19:21">
+      <c r="S16" s="5"/>
+      <c r="U16" s="5"/>
+    </row>
+    <row r="17" spans="19:21">
+      <c r="S17" s="5"/>
+      <c r="U17" s="5"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="S4:V17">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B6:N6 B7:K15">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="12" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B6:R17 W6:Y17 B18:Y36">
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B6:N15">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>15</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:Y36">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
-      <formula>1</formula>
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+      <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
-      <formula>2</formula>
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+      <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Labyrinth2/Excel/labyrinth1001.xlsx
+++ b/Labyrinth2/Excel/labyrinth1001.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15660" windowHeight="10890"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -60,7 +60,13 @@
     <t>c12</t>
   </si>
   <si>
-    <t>rule</t>
+    <t>ruleCount</t>
+  </si>
+  <si>
+    <t>grid0</t>
+  </si>
+  <si>
+    <t>gridType0</t>
   </si>
   <si>
     <t>int</t>
@@ -108,24 +114,32 @@
     <t>列12</t>
   </si>
   <si>
-    <t>规则</t>
-  </si>
-  <si>
-    <t>此行c0列值：地图总行数，c1列值：地图总列数</t>
-  </si>
-  <si>
-    <t>1、2、4、8(还可以扩展 2 的次幂) 表示 N 中不同的路径，理论上4中已经够用了</t>
-  </si>
-  <si>
-    <t>每个格子的值表示该格子属于哪一种路径</t>
-  </si>
-  <si>
-    <t>相邻格子是否互通(中间没有墙)如何判定？假定相邻格子值分别为 A,B
-位运算 （A &amp; B)!= 0  则两个格子互通(中间没有墙)，否则两格子中间有墙</t>
-  </si>
-  <si>
-    <t>为了便于识别，将每种值得格子设置为单独的颜色标识，设置方式：先选择区域，然后菜单栏
-条件格式-&gt;突出显示单元格规则-&gt;等于-&gt;设置为-&gt;自定义-&gt;图案 然后选择一个颜色</t>
+    <t>规则列数量</t>
+  </si>
+  <si>
+    <t>某一行，某一列的格子</t>
+  </si>
+  <si>
+    <t>1 入口
+2 出口</t>
+  </si>
+  <si>
+    <t>地图编辑规则看：Strategy\地图编辑\规则样例.xlsx</t>
+  </si>
+  <si>
+    <t>规则数据 1列 2行</t>
+  </si>
+  <si>
+    <t>如3,0表示:第3行，第0列的格子</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>3,0</t>
+  </si>
+  <si>
+    <t>6,12</t>
   </si>
 </sst>
 </file>
@@ -133,10 +147,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -147,16 +161,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,23 +175,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,21 +192,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,14 +210,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -276,6 +252,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -290,6 +290,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -300,31 +314,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,61 +470,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,85 +488,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,16 +524,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,17 +553,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,26 +604,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,10 +628,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -626,143 +640,146 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -773,10 +790,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -834,14 +854,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.399975585192419"/>
+          <bgColor theme="7" tint="0.599993896298105"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.599993896298105"/>
+          <bgColor theme="6" tint="0.399975585192419"/>
         </patternFill>
       </fill>
     </dxf>
@@ -883,7 +903,21 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.599993896298105"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -897,21 +931,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
+          <bgColor theme="9" tint="0.599993896298105"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1215,16 +1235,18 @@
   <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="11" width="8.66666666666667" customWidth="1"/>
-    <col min="15" max="15" width="82.375" customWidth="1"/>
+    <col min="15" max="15" width="18.5" customWidth="1"/>
+    <col min="16" max="16" width="28.25" customWidth="1"/>
+    <col min="17" max="17" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1" spans="1:15">
+    <row r="1" ht="25" customHeight="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1267,106 +1289,135 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
     </row>
-    <row r="2" ht="25" customHeight="1" spans="1:15">
+    <row r="2" ht="25" customHeight="1" spans="1:20">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
     </row>
-    <row r="3" ht="25" customHeight="1" spans="1:15">
+    <row r="3" ht="25" customHeight="1" spans="1:20">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:21">
-      <c r="A4" s="1"/>
+      <c r="A4" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1377,12 +1428,20 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="3"/>
-      <c r="S4" s="5"/>
-      <c r="U4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="4"/>
+      <c r="R4"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="8"/>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:21">
       <c r="A5" s="1">
@@ -1427,550 +1486,594 @@
       <c r="N5" s="1">
         <v>0</v>
       </c>
-      <c r="O5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="S5" s="5"/>
-      <c r="U5" s="5"/>
+      <c r="O5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>1</v>
+      </c>
+      <c r="R5"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="8"/>
     </row>
     <row r="6" ht="45" customHeight="1" spans="1:21">
       <c r="A6" s="1">
         <v>0</v>
       </c>
-      <c r="B6" s="2">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2</v>
-      </c>
-      <c r="F6" s="2">
-        <v>2</v>
-      </c>
-      <c r="G6" s="2">
-        <v>2</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2">
-        <v>4</v>
-      </c>
-      <c r="J6" s="2">
-        <v>4</v>
-      </c>
-      <c r="K6" s="2">
-        <v>4</v>
-      </c>
-      <c r="L6" s="2">
-        <v>4</v>
-      </c>
-      <c r="M6" s="2">
-        <v>1</v>
-      </c>
-      <c r="N6" s="2">
-        <v>1</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S6" s="5"/>
-      <c r="U6" s="5"/>
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>4</v>
+      </c>
+      <c r="J6" s="3">
+        <v>4</v>
+      </c>
+      <c r="K6" s="3">
+        <v>4</v>
+      </c>
+      <c r="L6" s="3">
+        <v>4</v>
+      </c>
+      <c r="M6" s="3">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>2</v>
+      </c>
+      <c r="R6"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="8"/>
     </row>
     <row r="7" ht="45" customHeight="1" spans="1:21">
       <c r="A7" s="1">
         <v>1</v>
       </c>
-      <c r="B7" s="2">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3">
         <v>15</v>
       </c>
-      <c r="D7" s="2">
-        <v>4</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1</v>
-      </c>
-      <c r="K7" s="2">
-        <v>2</v>
-      </c>
-      <c r="L7" s="2">
-        <v>4</v>
-      </c>
-      <c r="M7" s="2">
-        <v>4</v>
-      </c>
-      <c r="N7" s="2">
+      <c r="D7" s="3">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
+        <v>2</v>
+      </c>
+      <c r="L7" s="3">
+        <v>4</v>
+      </c>
+      <c r="M7" s="3">
+        <v>4</v>
+      </c>
+      <c r="N7" s="3">
         <v>15</v>
       </c>
-      <c r="O7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S7" s="5"/>
-      <c r="U7" s="5"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="8"/>
     </row>
     <row r="8" ht="45" customHeight="1" spans="1:21">
       <c r="A8" s="1">
         <v>2</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>15</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>8</v>
       </c>
-      <c r="D8" s="2">
-        <v>4</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2">
-        <v>2</v>
-      </c>
-      <c r="G8" s="2">
-        <v>4</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2">
+      <c r="D8" s="3">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
         <v>15</v>
       </c>
-      <c r="J8" s="2">
-        <v>2</v>
-      </c>
-      <c r="K8" s="2">
-        <v>2</v>
-      </c>
-      <c r="L8" s="2">
-        <v>4</v>
-      </c>
-      <c r="M8" s="2">
-        <v>2</v>
-      </c>
-      <c r="N8" s="2">
-        <v>2</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="S8" s="5"/>
-      <c r="U8" s="5"/>
+      <c r="J8" s="3">
+        <v>2</v>
+      </c>
+      <c r="K8" s="3">
+        <v>2</v>
+      </c>
+      <c r="L8" s="3">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3">
+        <v>2</v>
+      </c>
+      <c r="N8" s="3">
+        <v>2</v>
+      </c>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="8"/>
     </row>
     <row r="9" ht="45" customHeight="1" spans="1:21">
       <c r="A9" s="1">
         <v>3</v>
       </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2">
-        <v>2</v>
-      </c>
-      <c r="G9" s="2">
-        <v>4</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2">
-        <v>4</v>
-      </c>
-      <c r="J9" s="2">
-        <v>4</v>
-      </c>
-      <c r="K9" s="2">
-        <v>4</v>
-      </c>
-      <c r="L9" s="2">
-        <v>4</v>
-      </c>
-      <c r="M9" s="2">
-        <v>4</v>
-      </c>
-      <c r="N9" s="2">
-        <v>2</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="S9" s="5"/>
-      <c r="U9" s="5"/>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3">
+        <v>4</v>
+      </c>
+      <c r="K9" s="3">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3">
+        <v>2</v>
+      </c>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="8"/>
     </row>
     <row r="10" ht="45" customHeight="1" spans="1:21">
       <c r="A10" s="1">
         <v>4</v>
       </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2">
-        <v>2</v>
-      </c>
-      <c r="F10" s="2">
-        <v>2</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2</v>
+      </c>
+      <c r="G10" s="3">
         <v>15</v>
       </c>
-      <c r="H10" s="2">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2">
-        <v>4</v>
-      </c>
-      <c r="J10" s="2">
-        <v>2</v>
-      </c>
-      <c r="K10" s="2">
-        <v>2</v>
-      </c>
-      <c r="L10" s="2">
-        <v>2</v>
-      </c>
-      <c r="M10" s="2">
-        <v>2</v>
-      </c>
-      <c r="N10" s="2">
-        <v>2</v>
-      </c>
-      <c r="O10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="U10" s="5"/>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2</v>
+      </c>
+      <c r="K10" s="3">
+        <v>2</v>
+      </c>
+      <c r="L10" s="3">
+        <v>2</v>
+      </c>
+      <c r="M10" s="3">
+        <v>2</v>
+      </c>
+      <c r="N10" s="3">
+        <v>2</v>
+      </c>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="8"/>
     </row>
     <row r="11" ht="45" customHeight="1" spans="1:21">
       <c r="A11" s="1">
         <v>5</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>15</v>
       </c>
-      <c r="C11" s="2">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="C11" s="3">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3">
         <v>8</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>8</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
         <v>8</v>
       </c>
-      <c r="G11" s="2">
-        <v>4</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1</v>
-      </c>
-      <c r="I11" s="2">
-        <v>2</v>
-      </c>
-      <c r="J11" s="2">
-        <v>2</v>
-      </c>
-      <c r="K11" s="2">
-        <v>2</v>
-      </c>
-      <c r="L11" s="2">
+      <c r="G11" s="3">
+        <v>4</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3">
+        <v>2</v>
+      </c>
+      <c r="J11" s="3">
+        <v>2</v>
+      </c>
+      <c r="K11" s="3">
+        <v>2</v>
+      </c>
+      <c r="L11" s="3">
         <v>8</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="3">
         <v>15</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="3">
         <v>8</v>
       </c>
-      <c r="O11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="U11" s="5"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="8"/>
     </row>
     <row r="12" ht="45" customHeight="1" spans="1:21">
       <c r="A12" s="1">
         <v>6</v>
       </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3">
         <v>15</v>
       </c>
-      <c r="E12" s="2">
-        <v>4</v>
-      </c>
-      <c r="F12" s="2">
-        <v>4</v>
-      </c>
-      <c r="G12" s="2">
-        <v>4</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1</v>
-      </c>
-      <c r="I12" s="2">
-        <v>2</v>
-      </c>
-      <c r="J12" s="2">
-        <v>1</v>
-      </c>
-      <c r="K12" s="2">
-        <v>1</v>
-      </c>
-      <c r="L12" s="2">
-        <v>1</v>
-      </c>
-      <c r="M12" s="2">
-        <v>1</v>
-      </c>
-      <c r="N12" s="2">
-        <v>1</v>
-      </c>
-      <c r="O12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="U12" s="5"/>
+      <c r="E12" s="3">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1</v>
+      </c>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="8"/>
     </row>
     <row r="13" ht="45" customHeight="1" spans="1:21">
       <c r="A13" s="1">
         <v>7</v>
       </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2">
-        <v>1</v>
-      </c>
-      <c r="I13" s="2">
-        <v>4</v>
-      </c>
-      <c r="J13" s="2">
-        <v>1</v>
-      </c>
-      <c r="K13" s="2">
-        <v>2</v>
-      </c>
-      <c r="L13" s="2">
-        <v>2</v>
-      </c>
-      <c r="M13" s="2">
-        <v>2</v>
-      </c>
-      <c r="N13" s="2">
-        <v>2</v>
-      </c>
-      <c r="O13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="U13" s="5"/>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
+        <v>4</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1</v>
+      </c>
+      <c r="K13" s="3">
+        <v>2</v>
+      </c>
+      <c r="L13" s="3">
+        <v>2</v>
+      </c>
+      <c r="M13" s="3">
+        <v>2</v>
+      </c>
+      <c r="N13" s="3">
+        <v>2</v>
+      </c>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="8"/>
     </row>
     <row r="14" ht="45" customHeight="1" spans="1:21">
       <c r="A14" s="1">
         <v>8</v>
       </c>
-      <c r="B14" s="2">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2">
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
         <v>15</v>
       </c>
-      <c r="G14" s="2">
-        <v>4</v>
-      </c>
-      <c r="H14" s="2">
-        <v>4</v>
-      </c>
-      <c r="I14" s="2">
-        <v>4</v>
-      </c>
-      <c r="J14" s="2">
-        <v>1</v>
-      </c>
-      <c r="K14" s="2">
-        <v>1</v>
-      </c>
-      <c r="L14" s="2">
-        <v>1</v>
-      </c>
-      <c r="M14" s="2">
+      <c r="G14" s="3">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1</v>
+      </c>
+      <c r="L14" s="3">
+        <v>1</v>
+      </c>
+      <c r="M14" s="3">
         <v>15</v>
       </c>
-      <c r="N14" s="2">
-        <v>1</v>
-      </c>
-      <c r="O14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="U14" s="5"/>
+      <c r="N14" s="3">
+        <v>1</v>
+      </c>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="8"/>
     </row>
     <row r="15" ht="45" customHeight="1" spans="1:21">
       <c r="A15" s="1">
         <v>9</v>
       </c>
-      <c r="B15" s="2">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3">
         <v>15</v>
       </c>
-      <c r="D15" s="2">
-        <v>2</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1</v>
-      </c>
-      <c r="I15" s="2">
-        <v>1</v>
-      </c>
-      <c r="J15" s="2">
-        <v>1</v>
-      </c>
-      <c r="K15" s="2">
-        <v>2</v>
-      </c>
-      <c r="L15" s="2">
-        <v>2</v>
-      </c>
-      <c r="M15" s="2">
-        <v>2</v>
-      </c>
-      <c r="N15" s="2">
-        <v>2</v>
-      </c>
-      <c r="O15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="U15" s="5"/>
+      <c r="D15" s="3">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1</v>
+      </c>
+      <c r="K15" s="3">
+        <v>2</v>
+      </c>
+      <c r="L15" s="3">
+        <v>2</v>
+      </c>
+      <c r="M15" s="3">
+        <v>2</v>
+      </c>
+      <c r="N15" s="3">
+        <v>2</v>
+      </c>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="8"/>
     </row>
     <row r="16" spans="19:21">
-      <c r="S16" s="5"/>
-      <c r="U16" s="5"/>
+      <c r="S16" s="8"/>
+      <c r="U16" s="8"/>
     </row>
     <row r="17" spans="19:21">
-      <c r="S17" s="5"/>
-      <c r="U17" s="5"/>
+      <c r="S17" s="8"/>
+      <c r="U17" s="8"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="S4:V17">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="13" operator="equal">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:N6 B7:K15">
-    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="21" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="22" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="23" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:R17 W6:Y17 B18:Y36">
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
-      <formula>1</formula>
+  <conditionalFormatting sqref="B6:N15">
+    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
+      <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="16" operator="equal">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="17" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="18" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:N15 B16:O36 P18:Y36 W6:Y17 P16:R17">
+    <cfRule type="cellIs" dxfId="0" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:N15">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
-      <formula>15</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
-      <formula>15</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
-      <formula>15</formula>
+    <cfRule type="cellIs" dxfId="1" priority="20" operator="equal">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Labyrinth2/Excel/labyrinth1001.xlsx
+++ b/Labyrinth2/Excel/labyrinth1001.xlsx
@@ -127,13 +127,13 @@
     <t>地图编辑规则看：Strategy\地图编辑\规则样例.xlsx</t>
   </si>
   <si>
-    <t>规则数据 1列 2行</t>
+    <t>2,1表示 2行 1列</t>
   </si>
   <si>
     <t>如3,0表示:第3行，第0列的格子</t>
   </si>
   <si>
-    <t>1,2</t>
+    <t>2,1</t>
   </si>
   <si>
     <t>3,0</t>
@@ -148,8 +148,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -161,6 +161,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -169,7 +184,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,22 +214,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,22 +260,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -269,6 +268,13 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -276,8 +282,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,13 +299,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -314,6 +314,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -326,31 +392,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,139 +410,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,30 +562,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -612,6 +588,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -628,10 +628,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,137 +640,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -791,9 +791,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1235,7 +1232,7 @@
   <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1298,7 +1295,6 @@
       <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1"/>
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
     </row>
@@ -1354,7 +1350,6 @@
       <c r="Q2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R2"/>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
     </row>
@@ -1410,7 +1405,6 @@
       <c r="Q3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="R3"/>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
     </row>
@@ -1438,10 +1432,9 @@
         <v>37</v>
       </c>
       <c r="Q4" s="4"/>
-      <c r="R4"/>
-      <c r="S4" s="7"/>
+      <c r="S4" s="4"/>
       <c r="T4" s="4"/>
-      <c r="U4" s="8"/>
+      <c r="U4" s="7"/>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:21">
       <c r="A5" s="1">
@@ -1489,16 +1482,11 @@
       <c r="O5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="P5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>1</v>
-      </c>
-      <c r="R5"/>
-      <c r="S5" s="7"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="S5" s="4"/>
       <c r="T5" s="4"/>
-      <c r="U5" s="8"/>
+      <c r="U5" s="7"/>
     </row>
     <row r="6" ht="45" customHeight="1" spans="1:21">
       <c r="A6" s="1">
@@ -1545,15 +1533,14 @@
       </c>
       <c r="O6" s="4"/>
       <c r="P6" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q6" s="4">
-        <v>2</v>
-      </c>
-      <c r="R6"/>
-      <c r="S6" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="S6" s="4"/>
       <c r="T6" s="4"/>
-      <c r="U6" s="8"/>
+      <c r="U6" s="7"/>
     </row>
     <row r="7" ht="45" customHeight="1" spans="1:21">
       <c r="A7" s="1">
@@ -1599,12 +1586,15 @@
         <v>15</v>
       </c>
       <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7"/>
-      <c r="S7" s="7"/>
+      <c r="P7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>2</v>
+      </c>
+      <c r="S7" s="4"/>
       <c r="T7" s="4"/>
-      <c r="U7" s="8"/>
+      <c r="U7" s="7"/>
     </row>
     <row r="8" ht="45" customHeight="1" spans="1:21">
       <c r="A8" s="1">
@@ -1652,10 +1642,9 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
-      <c r="R8"/>
-      <c r="S8" s="7"/>
+      <c r="S8" s="4"/>
       <c r="T8" s="4"/>
-      <c r="U8" s="8"/>
+      <c r="U8" s="7"/>
     </row>
     <row r="9" ht="45" customHeight="1" spans="1:21">
       <c r="A9" s="1">
@@ -1703,10 +1692,9 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
-      <c r="R9"/>
-      <c r="S9" s="7"/>
+      <c r="S9" s="4"/>
       <c r="T9" s="4"/>
-      <c r="U9" s="8"/>
+      <c r="U9" s="7"/>
     </row>
     <row r="10" ht="45" customHeight="1" spans="1:21">
       <c r="A10" s="1">
@@ -1754,10 +1742,9 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
-      <c r="R10"/>
-      <c r="S10" s="7"/>
+      <c r="S10" s="4"/>
       <c r="T10" s="4"/>
-      <c r="U10" s="8"/>
+      <c r="U10" s="7"/>
     </row>
     <row r="11" ht="45" customHeight="1" spans="1:21">
       <c r="A11" s="1">
@@ -1805,10 +1792,9 @@
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
-      <c r="R11"/>
-      <c r="S11" s="7"/>
+      <c r="S11" s="4"/>
       <c r="T11" s="4"/>
-      <c r="U11" s="8"/>
+      <c r="U11" s="7"/>
     </row>
     <row r="12" ht="45" customHeight="1" spans="1:21">
       <c r="A12" s="1">
@@ -1856,10 +1842,9 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
-      <c r="R12"/>
-      <c r="S12" s="7"/>
+      <c r="S12" s="4"/>
       <c r="T12" s="4"/>
-      <c r="U12" s="8"/>
+      <c r="U12" s="7"/>
     </row>
     <row r="13" ht="45" customHeight="1" spans="1:21">
       <c r="A13" s="1">
@@ -1907,10 +1892,9 @@
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
-      <c r="R13"/>
-      <c r="S13" s="7"/>
+      <c r="S13" s="4"/>
       <c r="T13" s="4"/>
-      <c r="U13" s="8"/>
+      <c r="U13" s="7"/>
     </row>
     <row r="14" ht="45" customHeight="1" spans="1:21">
       <c r="A14" s="1">
@@ -1958,10 +1942,9 @@
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
-      <c r="R14"/>
-      <c r="S14" s="7"/>
+      <c r="S14" s="4"/>
       <c r="T14" s="4"/>
-      <c r="U14" s="8"/>
+      <c r="U14" s="7"/>
     </row>
     <row r="15" ht="45" customHeight="1" spans="1:21">
       <c r="A15" s="1">
@@ -2009,18 +1992,17 @@
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
-      <c r="R15"/>
-      <c r="S15" s="7"/>
+      <c r="S15" s="4"/>
       <c r="T15" s="4"/>
-      <c r="U15" s="8"/>
+      <c r="U15" s="7"/>
     </row>
     <row r="16" spans="19:21">
-      <c r="S16" s="8"/>
-      <c r="U16" s="8"/>
+      <c r="S16" s="7"/>
+      <c r="U16" s="7"/>
     </row>
     <row r="17" spans="19:21">
-      <c r="S17" s="8"/>
-      <c r="U17" s="8"/>
+      <c r="S17" s="7"/>
+      <c r="U17" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="S4:V17">
